--- a/docs_organizados/Outros/Divisão_Telas.xlsx
+++ b/docs_organizados/Outros/Divisão_Telas.xlsx
@@ -8,8 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Planilha1!$A$1:$F$49</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -79,7 +82,7 @@
     <t xml:space="preserve">Adquirir ou Renovar plano</t>
   </si>
   <si>
-    <t xml:space="preserve">Adição de cotas referente cada plano</t>
+    <t xml:space="preserve">Adição de cotas referente cada plano - X</t>
   </si>
   <si>
     <t xml:space="preserve">Tela de Inicio</t>
@@ -100,10 +103,10 @@
     <t xml:space="preserve">Funcionalidade de listagem dos Cadastrados</t>
   </si>
   <si>
-    <t xml:space="preserve">Funcionalidade de atribuição de estado do funcionario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coerelacionar estado do funcionario com um agendamento ou mais agendamentos</t>
+    <t xml:space="preserve">Funcionalidade de cadastro de reserva do funcionario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agenda do funcionário (exibir agendamentos para determinado dia e exibir reservas com destaque)</t>
   </si>
   <si>
     <t xml:space="preserve">Tela de Acesso ao Cliente</t>
@@ -166,7 +169,7 @@
     <t xml:space="preserve">Funcionalidade de Cadastrar Incidente</t>
   </si>
   <si>
-    <t xml:space="preserve">Funcionalidade de Atribuir estado reservado para o funcionario </t>
+    <t xml:space="preserve">Funcionalidade de Atribuir estado reservado para o funcionario após agendamento cadastrado</t>
   </si>
   <si>
     <t xml:space="preserve">Funcionalidade de Exibir o Historico de Agendamentos</t>
@@ -178,7 +181,7 @@
     <t xml:space="preserve">__Funcionalidade_de_Alterar_pacotes_de_agendamentos__</t>
   </si>
   <si>
-    <t xml:space="preserve">Funcionalidade de Modificar a Data, hora, dia da semana, mês, uncionario e estado de agendamento</t>
+    <t xml:space="preserve">Funcionalidade de Modificar a Data, hora, dia da semana, mês, funcionário e estado de agendamento</t>
   </si>
   <si>
     <t xml:space="preserve">Funcionalidade de Realizar busca por filtragem de Data, Funcionario, Estado de agendamento, entre outros...</t>
@@ -194,7 +197,7 @@
   <fonts count="13">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -216,7 +219,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
@@ -224,7 +227,7 @@
     <font>
       <b val="true"/>
       <sz val="18"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
@@ -232,7 +235,7 @@
     <font>
       <b val="true"/>
       <sz val="16"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
@@ -240,7 +243,7 @@
     <font>
       <b val="true"/>
       <sz val="16"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -248,14 +251,14 @@
     <font>
       <b val="true"/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
@@ -269,7 +272,7 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -321,7 +324,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
@@ -453,120 +456,128 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -643,178 +654,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema do Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546a"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472c4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ed7d31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="ffc000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70ad47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563c1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954f72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -822,547 +661,547 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J40" activeCellId="0" sqref="J40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="66.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="56.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="14"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="14"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="14"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="17"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
     </row>
     <row r="40" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
     </row>
     <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
     </row>
     <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
     </row>
     <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
     </row>
     <row r="44" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
     </row>
     <row r="45" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
     </row>
     <row r="46" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
     </row>
     <row r="47" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
     </row>
     <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
     </row>
     <row r="49" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
     </row>
     <row r="50" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
     </row>
     <row r="51" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
     </row>
     <row r="52" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="23"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="51">
@@ -1418,9 +1257,9 @@
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A52:B52"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="65" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/docs_organizados/Outros/Divisão_Telas.xlsx
+++ b/docs_organizados/Outros/Divisão_Telas.xlsx
@@ -662,7 +662,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -949,7 +949,7 @@
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="18"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="17" t="s">
@@ -959,7 +959,7 @@
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
-      <c r="F27" s="18"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="17" t="s">
@@ -969,7 +969,7 @@
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="18"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="17" t="s">
@@ -979,7 +979,7 @@
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
-      <c r="F29" s="18"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="17" t="s">
@@ -989,7 +989,7 @@
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
-      <c r="F30" s="18"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="17" t="s">
@@ -999,7 +999,7 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
-      <c r="F31" s="18"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="14" t="s">
